--- a/_site/assets/2020/05/23/Patvirtintuimoniusarasas.xlsx
+++ b/_site/assets/2020/05/23/Patvirtintuimoniusarasas.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="913">
   <si>
     <t xml:space="preserve">Eil. Nr.</t>
   </si>
@@ -2768,7 +2768,7 @@
     <t xml:space="preserve">Count - Eil. Nr.</t>
   </si>
   <si>
-    <t xml:space="preserve">Data</t>
+    <t xml:space="preserve">Total Result</t>
   </si>
 </sst>
 </file>
@@ -2780,7 +2780,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2803,6 +2803,14 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2812,7 +2820,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="26">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2877,9 +2885,9 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="thin"/>
       <right style="medium"/>
-      <top/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -2906,6 +2914,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right style="medium"/>
       <top style="thin"/>
       <bottom/>
@@ -2927,41 +2942,69 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right style="medium"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
-      <top/>
+      <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
-      <top/>
+      <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top/>
+      <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right style="medium"/>
-      <top/>
+      <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2986,6 +3029,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2994,11 +3040,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3027,7 +3076,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3035,11 +3084,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3047,90 +3096,108 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Pivot Table Corner" xfId="20"/>
-    <cellStyle name="Pivot Table Value" xfId="21"/>
+    <cellStyle name="Pivot Table Category" xfId="20"/>
+    <cellStyle name="Pivot Table Corner" xfId="21"/>
     <cellStyle name="Pivot Table Field" xfId="22"/>
-    <cellStyle name="Pivot Table Category" xfId="23"/>
+    <cellStyle name="Pivot Table Value" xfId="23"/>
+    <cellStyle name="Pivot Table Title" xfId="24"/>
+    <cellStyle name="Pivot Table Result" xfId="25"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -12050,7 +12117,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="0" outlineData="0" compact="0" compactData="0">
-  <location ref="A3:D18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:E19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" compact="0" showAll="0" outline="0"/>
     <pivotField compact="0" showAll="0"/>
@@ -12304,10 +12371,10 @@
       <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="12.29"/>
@@ -31246,15 +31313,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="90.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="92.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31270,10 +31337,11 @@
         <v>911</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>912</v>
+        <v>4</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
@@ -31285,8 +31353,11 @@
       <c r="C4" s="13" t="n">
         <v>2019</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="13" t="n">
         <v>2020</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31300,156 +31371,215 @@
         <v>1</v>
       </c>
       <c r="D5" s="18"/>
+      <c r="E5" s="19" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="20" t="n">
+      <c r="B6" s="21" t="n">
         <v>75</v>
       </c>
-      <c r="C6" s="21" t="n">
+      <c r="C6" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="D6" s="22" t="n">
+      <c r="D6" s="23" t="n">
         <v>2</v>
       </c>
+      <c r="E6" s="24" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="20" t="n">
+      <c r="B7" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="n">
+      <c r="C7" s="22" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="23"/>
+      <c r="E7" s="24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="20" t="n">
+      <c r="B8" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="C8" s="21" t="n">
+      <c r="C8" s="22" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="23"/>
+      <c r="E8" s="24" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="21" t="n">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="23"/>
+      <c r="E9" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="20" t="n">
+      <c r="B10" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="21" t="n">
+      <c r="C10" s="22" t="n">
         <v>2</v>
       </c>
       <c r="D10" s="23"/>
+      <c r="E10" s="24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="20" t="n">
+      <c r="B11" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="23"/>
+      <c r="E11" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="B12" s="20" t="n">
+      <c r="B12" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="23"/>
+      <c r="E12" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="20" t="n">
+      <c r="B13" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="23"/>
+      <c r="E13" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B14" s="20" t="n">
+      <c r="B14" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="23"/>
+      <c r="E14" s="24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="20" t="n">
+      <c r="B15" s="21" t="n">
         <v>90</v>
       </c>
-      <c r="C15" s="21" t="n">
+      <c r="C15" s="22" t="n">
         <v>22</v>
       </c>
-      <c r="D15" s="22" t="n">
+      <c r="D15" s="23" t="n">
         <v>1</v>
       </c>
+      <c r="E15" s="24" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="B16" s="20" t="n">
+      <c r="B16" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="23"/>
+      <c r="E16" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="20" t="n">
+      <c r="B17" s="21" t="n">
         <v>320</v>
       </c>
-      <c r="C17" s="21" t="n">
+      <c r="C17" s="22" t="n">
         <v>20</v>
       </c>
-      <c r="D17" s="22" t="n">
+      <c r="D17" s="23" t="n">
         <v>1</v>
       </c>
+      <c r="E17" s="24" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="27" t="n">
+      <c r="B18" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="C18" s="28" t="n">
+      <c r="C18" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="29" t="s">
+        <v>912</v>
+      </c>
+      <c r="B19" s="30" t="n">
+        <v>517</v>
+      </c>
+      <c r="C19" s="31" t="n">
+        <v>59</v>
+      </c>
+      <c r="D19" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="33" t="n">
+        <v>580</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -31473,7 +31603,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -31496,7 +31626,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
